--- a/data/reference_reports/AO_TPT_V5.0_Dynasty Corporate Bonds 0 - 2.5 Class A_LU2133138276_20201231.xlsx
+++ b/data/reference_reports/AO_TPT_V5.0_Dynasty Corporate Bonds 0 - 2.5 Class A_LU2133138276_20201231.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo Durand\Workspace\TPT_generator\data\reference_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23801C44-9F4C-4047-B74C-E63F484DA0EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F487ECF-A274-409D-99A3-2CD36CBB6F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2385,10 +2385,10 @@
     <t>TSI2PJM6EPETEQ4X1U25</t>
   </si>
   <si>
-    <t>FPEUR_1</t>
-  </si>
-  <si>
-    <t>FPEUR_2</t>
+    <t>FPEUR_sell</t>
+  </si>
+  <si>
+    <t>FPEUR_buy</t>
   </si>
 </sst>
 </file>
@@ -3401,7 +3401,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="15"/>
